--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF7F965-6626-4193-89A3-B6ABC86BBBBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909A85A7-CDF5-4A79-AE6D-5AA566C7E310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre assessment first try" sheetId="1" r:id="rId1"/>
     <sheet name="Chapter 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Chapter 2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="15">
   <si>
     <t>A</t>
   </si>
@@ -73,6 +74,15 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> D F</t>
+  </si>
+  <si>
+    <t>D F</t>
   </si>
 </sst>
 </file>
@@ -1228,7 +1238,7 @@
         <v>3</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" ref="C65:C96" si="2">IF(A65=B65, "Correct", "Incorrect")</f>
+        <f t="shared" ref="C65:C75" si="2">IF(A65=B65, "Correct", "Incorrect")</f>
         <v>Correct</v>
       </c>
     </row>
@@ -1362,7 +1372,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5E727B-AE7C-4F51-B2B8-5983231DD12C}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -1494,4 +1504,142 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB961BBC-526E-4B79-9609-C5C2D54B4178}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909A85A7-CDF5-4A79-AE6D-5AA566C7E310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E2ED8C-52E7-4D78-B317-F70C4130782A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre assessment first try" sheetId="1" r:id="rId1"/>
     <sheet name="Chapter 1" sheetId="2" r:id="rId2"/>
     <sheet name="Chapter 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Chapter 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -83,6 +84,9 @@
   </si>
   <si>
     <t>D F</t>
+  </si>
+  <si>
+    <t>D E</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +1514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB961BBC-526E-4B79-9609-C5C2D54B4178}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1642,4 +1646,139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29885B0-DDBB-4F88-B6E7-44124B8A9BE7}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E2ED8C-52E7-4D78-B317-F70C4130782A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB01E2D-962D-4DAB-AF38-9BAD9C994DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre assessment first try" sheetId="1" r:id="rId1"/>
     <sheet name="Chapter 1" sheetId="2" r:id="rId2"/>
     <sheet name="Chapter 2" sheetId="3" r:id="rId3"/>
     <sheet name="Chapter 3" sheetId="4" r:id="rId4"/>
+    <sheet name="Chapter 4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -1652,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F29885B0-DDBB-4F88-B6E7-44124B8A9BE7}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,4 +1782,94 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED693C8-FD51-4782-AB42-89326B96C028}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB01E2D-962D-4DAB-AF38-9BAD9C994DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0EFB75-4EB5-468E-91DB-2E07264C05D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -1786,86 +1786,131 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED693C8-FD51-4782-AB42-89326B96C028}">
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
         <v>2</v>
       </c>
     </row>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0EFB75-4EB5-468E-91DB-2E07264C05D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F85366B-16CE-400F-A006-FC4081257D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre assessment first try" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Chapter 2" sheetId="3" r:id="rId3"/>
     <sheet name="Chapter 3" sheetId="4" r:id="rId4"/>
     <sheet name="Chapter 4" sheetId="5" r:id="rId5"/>
+    <sheet name="Chapter 5" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -1788,8 +1789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED693C8-FD51-4782-AB42-89326B96C028}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1917,4 +1918,139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19CCA64-C672-4E11-AC42-543822412588}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F85366B-16CE-400F-A006-FC4081257D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D0B131-AE65-4F2B-8F6D-56CF6589ACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre assessment first try" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Chapter 3" sheetId="4" r:id="rId4"/>
     <sheet name="Chapter 4" sheetId="5" r:id="rId5"/>
     <sheet name="Chapter 5" sheetId="6" r:id="rId6"/>
+    <sheet name="Chapter 6" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -1924,7 +1925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19CCA64-C672-4E11-AC42-543822412588}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
@@ -2053,4 +2054,139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4A3DED-E691-4387-9AA8-503308149DF3}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D0B131-AE65-4F2B-8F6D-56CF6589ACBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9141EE-3740-4418-AA09-DC587F736D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre assessment first try" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Chapter 4" sheetId="5" r:id="rId5"/>
     <sheet name="Chapter 5" sheetId="6" r:id="rId6"/>
     <sheet name="Chapter 6" sheetId="7" r:id="rId7"/>
+    <sheet name="Chapter 7" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="16">
   <si>
     <t>A</t>
   </si>
@@ -2060,8 +2061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4A3DED-E691-4387-9AA8-503308149DF3}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R32" sqref="R32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,4 +2190,139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D8F92F-30A0-4367-AD4F-351E5110DA78}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="A7:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B9141EE-3740-4418-AA09-DC587F736D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D3C8CE-07EE-475C-88E5-41B8C4340224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre assessment first try" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Chapter 5" sheetId="6" r:id="rId6"/>
     <sheet name="Chapter 6" sheetId="7" r:id="rId7"/>
     <sheet name="Chapter 7" sheetId="8" r:id="rId8"/>
+    <sheet name="Chapter 8" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="18">
   <si>
     <t>A</t>
   </si>
@@ -91,6 +92,12 @@
   </si>
   <si>
     <t>D E</t>
+  </si>
+  <si>
+    <t>B D</t>
+  </si>
+  <si>
+    <t>A C</t>
   </si>
 </sst>
 </file>
@@ -2196,7 +2203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D8F92F-30A0-4367-AD4F-351E5110DA78}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
@@ -2325,4 +2332,139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF71E9B-C3FB-446A-97E6-C2F96A88F3ED}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D3C8CE-07EE-475C-88E5-41B8C4340224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24DE13-D2D9-4B70-8858-252366E41511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre assessment first try" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Chapter 6" sheetId="7" r:id="rId7"/>
     <sheet name="Chapter 7" sheetId="8" r:id="rId8"/>
     <sheet name="Chapter 8" sheetId="9" r:id="rId9"/>
+    <sheet name="Chapter 9" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="19">
   <si>
     <t>A</t>
   </si>
@@ -98,6 +99,9 @@
   </si>
   <si>
     <t>A C</t>
+  </si>
+  <si>
+    <t>A C D</t>
   </si>
 </sst>
 </file>
@@ -1383,6 +1387,141 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B711E9F-D760-4A72-9E62-008F46D0889C}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E5E727B-AE7C-4F51-B2B8-5983231DD12C}">
   <dimension ref="A1:E15"/>
@@ -2338,7 +2477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF71E9B-C3FB-446A-97E6-C2F96A88F3ED}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE24DE13-D2D9-4B70-8858-252366E41511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5358280A-D8D7-44A3-AB39-E872CF7C114E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="9" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="10" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre assessment first try" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Chapter 7" sheetId="8" r:id="rId8"/>
     <sheet name="Chapter 8" sheetId="9" r:id="rId9"/>
     <sheet name="Chapter 9" sheetId="10" r:id="rId10"/>
+    <sheet name="Chapter 10" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="19">
   <si>
     <t>A</t>
   </si>
@@ -1391,8 +1392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B711E9F-D760-4A72-9E62-008F46D0889C}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1507,6 +1508,141 @@
       </c>
       <c r="B14" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F2D6AA-421B-4F10-9382-5CBAF04E7203}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5358280A-D8D7-44A3-AB39-E872CF7C114E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED4C491-CCC9-449C-95A6-6385EA2D9653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="10" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="11" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre assessment first try" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Chapter 8" sheetId="9" r:id="rId9"/>
     <sheet name="Chapter 9" sheetId="10" r:id="rId10"/>
     <sheet name="Chapter 10" sheetId="11" r:id="rId11"/>
+    <sheet name="Chapter 11" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -103,6 +104,12 @@
   </si>
   <si>
     <t>A C D</t>
+  </si>
+  <si>
+    <t>A E</t>
+  </si>
+  <si>
+    <t>B E</t>
   </si>
 </sst>
 </file>
@@ -1527,7 +1534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8F2D6AA-421B-4F10-9382-5CBAF04E7203}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -1651,6 +1658,141 @@
       </c>
       <c r="B15" t="s">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32699FE4-AAB0-47D9-979D-7671924C0BC8}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED4C491-CCC9-449C-95A6-6385EA2D9653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D951C31-E2C4-4481-81B5-282AF3F0BF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="11" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="12" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre assessment first try" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Chapter 9" sheetId="10" r:id="rId10"/>
     <sheet name="Chapter 10" sheetId="11" r:id="rId11"/>
     <sheet name="Chapter 11" sheetId="12" r:id="rId12"/>
+    <sheet name="Review" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -116,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +128,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,9 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1669,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32699FE4-AAB0-47D9-979D-7671924C0BC8}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -1785,6 +1793,141 @@
       </c>
       <c r="B14" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BEC2C6-547D-421C-82EF-3F043331E1DC}">
+  <dimension ref="A1:B15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29:L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1805,7 +1948,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B15" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D951C31-E2C4-4481-81B5-282AF3F0BF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0804F76-A6C0-4AD8-A857-922C62C73B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="12" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -1810,132 +1810,222 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BEC2C6-547D-421C-82EF-3F043331E1DC}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29:L30"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="B14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15" t="s">
         <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2176,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B15" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0804F76-A6C0-4AD8-A857-922C62C73B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C5B280-50D6-4E33-A923-B4569059CC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="12" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -117,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +134,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -159,10 +166,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1810,15 +1818,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BEC2C6-547D-421C-82EF-3F043331E1DC}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1831,8 +1839,14 @@
       <c r="E1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1845,8 +1859,14 @@
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1859,8 +1879,14 @@
       <c r="E3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1873,8 +1899,14 @@
       <c r="E4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1887,8 +1919,14 @@
       <c r="E5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1901,8 +1939,14 @@
       <c r="E6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1915,8 +1959,14 @@
       <c r="E7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1929,8 +1979,14 @@
       <c r="E8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +1999,14 @@
       <c r="E9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1957,8 +2019,14 @@
       <c r="E10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1971,8 +2039,14 @@
       <c r="E11" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1985,8 +2059,14 @@
       <c r="E12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -1999,8 +2079,14 @@
       <c r="E13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>3</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2013,8 +2099,14 @@
       <c r="E14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2026,6 +2118,12 @@
       </c>
       <c r="E15" t="s">
         <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2314,7 +2412,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="B15" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C5B280-50D6-4E33-A923-B4569059CC2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573AE5A6-F312-455C-AD9A-9369D08684DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="12" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -1818,15 +1818,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BEC2C6-547D-421C-82EF-3F043331E1DC}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1845,8 +1845,14 @@
       <c r="H1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1865,8 +1871,14 @@
       <c r="H2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1885,8 +1897,14 @@
       <c r="H3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1905,8 +1923,14 @@
       <c r="H4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1925,8 +1949,14 @@
       <c r="H5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1945,8 +1975,14 @@
       <c r="H6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -1965,8 +2001,14 @@
       <c r="H7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1985,8 +2027,14 @@
       <c r="H8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2005,8 +2053,14 @@
       <c r="H9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2025,8 +2079,14 @@
       <c r="H10" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2045,8 +2105,14 @@
       <c r="H11" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2065,8 +2131,14 @@
       <c r="H12" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2085,8 +2157,14 @@
       <c r="H13" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2105,8 +2183,14 @@
       <c r="H14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2124,6 +2208,12 @@
       </c>
       <c r="H15" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2637,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B15" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573AE5A6-F312-455C-AD9A-9369D08684DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE4D583-253F-46A7-85C1-99583F4EDE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="12" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -1818,15 +1818,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BEC2C6-547D-421C-82EF-3F043331E1DC}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1851,8 +1851,14 @@
       <c r="K1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1877,8 +1883,14 @@
       <c r="K2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1903,8 +1915,14 @@
       <c r="K3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1929,8 +1947,14 @@
       <c r="K4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1955,8 +1979,14 @@
       <c r="K5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1981,8 +2011,14 @@
       <c r="K6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2007,8 +2043,14 @@
       <c r="K7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2033,8 +2075,14 @@
       <c r="K8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2059,8 +2107,14 @@
       <c r="K9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2085,8 +2139,14 @@
       <c r="K10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2111,8 +2171,14 @@
       <c r="K11" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2137,8 +2203,14 @@
       <c r="K12" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2163,8 +2235,14 @@
       <c r="K13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2189,8 +2267,14 @@
       <c r="K14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2214,6 +2298,12 @@
       </c>
       <c r="K15" t="s">
         <v>2</v>
+      </c>
+      <c r="M15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2772,7 +2862,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE4D583-253F-46A7-85C1-99583F4EDE58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D435B58D-AD5D-4D1A-AD1C-D10F930A6B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="12" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -1818,15 +1818,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BEC2C6-547D-421C-82EF-3F043331E1DC}">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1857,8 +1857,14 @@
       <c r="N1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1889,8 +1895,14 @@
       <c r="N2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1921,8 +1933,14 @@
       <c r="N3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1953,8 +1971,14 @@
       <c r="N4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1985,8 +2009,14 @@
       <c r="N5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2017,8 +2047,14 @@
       <c r="N6" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2049,8 +2085,14 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2081,8 +2123,14 @@
       <c r="N8" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2113,8 +2161,14 @@
       <c r="N9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2145,8 +2199,14 @@
       <c r="N10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2177,8 +2237,14 @@
       <c r="N11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2209,8 +2275,14 @@
       <c r="N12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2241,8 +2313,14 @@
       <c r="N13" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2273,8 +2351,14 @@
       <c r="N14" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2304,6 +2388,12 @@
       </c>
       <c r="N15" t="s">
         <v>0</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2997,7 +3087,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R32" sqref="R32"/>
+      <selection activeCell="B15" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D435B58D-AD5D-4D1A-AD1C-D10F930A6B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D0278-24D7-42C4-B29C-CE29DDA4AD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="12" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -1818,15 +1818,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BEC2C6-547D-421C-82EF-3F043331E1DC}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:T15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+      <selection activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1863,8 +1863,14 @@
       <c r="Q1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1901,8 +1907,14 @@
       <c r="Q2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1939,8 +1951,14 @@
       <c r="Q3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3" t="s">
+        <v>1</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1977,8 +1995,14 @@
       <c r="Q4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2015,8 +2039,14 @@
       <c r="Q5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S5" t="s">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2053,8 +2083,14 @@
       <c r="Q6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S6" t="s">
+        <v>1</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2091,8 +2127,14 @@
       <c r="Q7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2129,8 +2171,14 @@
       <c r="Q8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2167,8 +2215,14 @@
       <c r="Q9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S9" t="s">
+        <v>2</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2205,8 +2259,14 @@
       <c r="Q10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2243,8 +2303,14 @@
       <c r="Q11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S11" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2281,8 +2347,14 @@
       <c r="Q12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S12" t="s">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2319,8 +2391,14 @@
       <c r="Q13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S13" t="s">
+        <v>3</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2357,8 +2435,14 @@
       <c r="Q14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S14" t="s">
+        <v>3</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2393,6 +2477,12 @@
         <v>3</v>
       </c>
       <c r="Q15" t="s">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>3</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3222,7 +3312,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="A7:B7"/>
+      <selection activeCell="B15" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654D0278-24D7-42C4-B29C-CE29DDA4AD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774B7461-9714-4F8A-BF3E-48FB94F127BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="12" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -1415,8 +1415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B711E9F-D760-4A72-9E62-008F46D0889C}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,15 +1818,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BEC2C6-547D-421C-82EF-3F043331E1DC}">
-  <dimension ref="A1:T15"/>
+  <dimension ref="A1:W15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1869,8 +1869,14 @@
       <c r="T1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V1" t="s">
+        <v>1</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1913,8 +1919,14 @@
       <c r="T2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1957,8 +1969,14 @@
       <c r="T3" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V3" t="s">
+        <v>2</v>
+      </c>
+      <c r="W3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2001,8 +2019,14 @@
       <c r="T4" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V4" t="s">
+        <v>17</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2045,8 +2069,14 @@
       <c r="T5" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2089,8 +2119,14 @@
       <c r="T6" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V6" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2133,8 +2169,14 @@
       <c r="T7" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V7" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2177,8 +2219,14 @@
       <c r="T8" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V8" t="s">
+        <v>2</v>
+      </c>
+      <c r="W8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2221,8 +2269,14 @@
       <c r="T9" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V9" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2265,8 +2319,14 @@
       <c r="T10" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V10" t="s">
+        <v>3</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2309,8 +2369,14 @@
       <c r="T11" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V11" t="s">
+        <v>2</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2353,8 +2419,14 @@
       <c r="T12" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V12" t="s">
+        <v>3</v>
+      </c>
+      <c r="W12" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2397,8 +2469,14 @@
       <c r="T13" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V13" t="s">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2441,8 +2519,14 @@
       <c r="T14" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V14" t="s">
+        <v>1</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2455,7 +2539,7 @@
       <c r="E15" t="s">
         <v>3</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -2484,6 +2568,12 @@
       </c>
       <c r="T15" s="2" t="s">
         <v>3</v>
+      </c>
+      <c r="V15" t="s">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3447,7 +3537,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="B15" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774B7461-9714-4F8A-BF3E-48FB94F127BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5E428D-7C85-4660-B291-F6827A1A7557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="12" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -1818,15 +1818,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BEC2C6-547D-421C-82EF-3F043331E1DC}">
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+      <selection activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1875,8 +1875,14 @@
       <c r="W1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1925,8 +1931,14 @@
       <c r="W2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1975,8 +1987,14 @@
       <c r="W3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2025,8 +2043,14 @@
       <c r="W4" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2075,8 +2099,14 @@
       <c r="W5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2155,14 @@
       <c r="W6" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2175,8 +2211,14 @@
       <c r="W7" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2225,8 +2267,14 @@
       <c r="W8" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y8" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2275,8 +2323,14 @@
       <c r="W9" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y9" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2325,8 +2379,14 @@
       <c r="W10" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y10" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2375,8 +2435,14 @@
       <c r="W11" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y11" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2425,8 +2491,14 @@
       <c r="W12" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2475,8 +2547,14 @@
       <c r="W13" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2525,8 +2603,14 @@
       <c r="W14" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="Y14" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2574,6 +2658,12 @@
       </c>
       <c r="W15" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE5E428D-7C85-4660-B291-F6827A1A7557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813EB5A4-B855-4D4A-9D9F-26E099D1C35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="12" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -1416,7 +1416,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B1:B15"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1551,7 +1551,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B15" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,15 +1818,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BEC2C6-547D-421C-82EF-3F043331E1DC}">
-  <dimension ref="A1:Z15"/>
+  <dimension ref="A1:AC15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB19" sqref="AB19"/>
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1881,8 +1881,14 @@
       <c r="Z1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1937,8 +1943,14 @@
       <c r="Z2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1993,8 +2005,14 @@
       <c r="Z3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2049,8 +2067,14 @@
       <c r="Z4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2105,8 +2129,14 @@
       <c r="Z5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2161,8 +2191,14 @@
       <c r="Z6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB6" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2217,8 +2253,14 @@
       <c r="Z7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2273,8 +2315,14 @@
       <c r="Z8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2329,8 +2377,14 @@
       <c r="Z9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB9" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2385,8 +2439,14 @@
       <c r="Z10" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2441,8 +2501,14 @@
       <c r="Z11" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2497,8 +2563,14 @@
       <c r="Z12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB12" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2553,8 +2625,14 @@
       <c r="Z13" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB13" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2609,8 +2687,14 @@
       <c r="Z14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AB14" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2663,6 +2747,12 @@
         <v>1</v>
       </c>
       <c r="Z15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC15" t="s">
         <v>1</v>
       </c>
     </row>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{813EB5A4-B855-4D4A-9D9F-26E099D1C35C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D140DC4-A942-4C89-8FCD-B1C2E36BE32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="12" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -1686,7 +1686,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="B15" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1818,15 +1818,15 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BEC2C6-547D-421C-82EF-3F043331E1DC}">
-  <dimension ref="A1:AC15"/>
+  <dimension ref="A1:AF15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W23" sqref="W23"/>
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1887,8 +1887,14 @@
       <c r="AC1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1949,8 +1955,14 @@
       <c r="AC2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -2011,8 +2023,14 @@
       <c r="AC3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -2073,8 +2091,14 @@
       <c r="AC4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2135,8 +2159,14 @@
       <c r="AC5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2197,8 +2227,14 @@
       <c r="AC6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -2259,8 +2295,14 @@
       <c r="AC7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -2321,8 +2363,14 @@
       <c r="AC8" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -2383,8 +2431,14 @@
       <c r="AC9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AF9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -2445,8 +2499,14 @@
       <c r="AC10" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE10" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -2507,8 +2567,14 @@
       <c r="AC11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE11" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -2569,8 +2635,14 @@
       <c r="AC12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE12" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -2631,8 +2703,14 @@
       <c r="AC13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE13" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -2693,8 +2771,14 @@
       <c r="AC14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="AE14" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -2754,6 +2838,12 @@
       </c>
       <c r="AC15" t="s">
         <v>1</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D140DC4-A942-4C89-8FCD-B1C2E36BE32B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF14760-21EC-4FA5-AF28-21190AD808F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="12" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="13" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre assessment first try" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,8 @@
     <sheet name="Chapter 10" sheetId="11" r:id="rId11"/>
     <sheet name="Chapter 11" sheetId="12" r:id="rId12"/>
     <sheet name="Review" sheetId="13" r:id="rId13"/>
+    <sheet name="Pre-assessment 2" sheetId="14" r:id="rId14"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -488,7 +490,7 @@
   <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1820,7 +1822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BEC2C6-547D-421C-82EF-3F043331E1DC}">
   <dimension ref="A1:AF15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
@@ -2847,6 +2849,937 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A573059E-97BB-4F92-ADF0-FE4F12003AC6}">
+  <dimension ref="A1:D75"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="str">
+        <f>IF(A1=B1, "Correct", "Incorrect")</f>
+        <v>Correct</v>
+      </c>
+      <c r="D1">
+        <f>COUNTIF(C:C, "Correct") / (COUNTIF(C:C, "Correct") + COUNTIF(C:C, "Incorrect"))</f>
+        <v>0.8666666666666667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C65" si="0">IF(A2=B2, "Correct", "Incorrect")</f>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Incorrect</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Incorrect</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>Incorrect</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>Incorrect</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>Incorrect</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>Incorrect</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C75" si="1">IF(A66=B66, "Correct", "Incorrect")</f>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>Incorrect</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>Incorrect</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>Incorrect</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>Incorrect</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F213327-9097-46D0-9C97-7A6936087FE3}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF14760-21EC-4FA5-AF28-21190AD808F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D923A7E1-4458-4A01-9197-5C0B1E6D33D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="13" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="13" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre assessment first try" sheetId="1" r:id="rId1"/>
@@ -2857,8 +2857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A573059E-97BB-4F92-ADF0-FE4F12003AC6}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2964,10 +2964,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C9" t="str">
@@ -3024,10 +3024,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C14" t="str">
@@ -3156,10 +3156,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C25" t="str">
@@ -3252,10 +3252,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C33" t="str">
@@ -3504,10 +3504,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C54" t="str">
@@ -3600,10 +3600,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="A62" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C62" t="str">
@@ -3660,10 +3660,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B67" s="2" t="s">
+      <c r="A67" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C67" t="str">
@@ -3684,10 +3684,10 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="A69" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C69" t="str">
@@ -3744,10 +3744,10 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B74" s="2" t="s">
+      <c r="A74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C74" t="str">
@@ -3756,10 +3756,10 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="A75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B75" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C75" t="str">

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D923A7E1-4458-4A01-9197-5C0B1E6D33D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D048D1C8-B40F-4BC4-9565-69B5E447F063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="13" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="14" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre assessment first try" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Chapter 11" sheetId="12" r:id="rId12"/>
     <sheet name="Review" sheetId="13" r:id="rId13"/>
     <sheet name="Pre-assessment 2" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet2" sheetId="15" r:id="rId15"/>
+    <sheet name="Post-assessment" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -2857,7 +2857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A573059E-97BB-4F92-ADF0-FE4F12003AC6}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3774,12 +3774,390 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F213327-9097-46D0-9C97-7A6936087FE3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/AssessmentAnswers.xlsx
+++ b/AssessmentAnswers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ethan\OneDrive\Documents\Projects\security-plus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D048D1C8-B40F-4BC4-9565-69B5E447F063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D489EFFC-4DE0-4A00-B14F-F55CB4148A44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="14" xr2:uid="{DF2722FF-B284-4057-B8C2-DC8A19C58944}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="21">
   <si>
     <t>A</t>
   </si>
@@ -2857,8 +2857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A573059E-97BB-4F92-ADF0-FE4F12003AC6}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,7 +2871,7 @@
         <v>7</v>
       </c>
       <c r="C1" t="str">
-        <f>IF(A1=B1, "Correct", "Incorrect")</f>
+        <f t="shared" ref="C1:C65" si="0">IF(A1=B1, "Correct", "Incorrect")</f>
         <v>Correct</v>
       </c>
       <c r="D1">
@@ -2887,7 +2887,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C65" si="0">IF(A2=B2, "Correct", "Incorrect")</f>
+        <f t="shared" si="0"/>
         <v>Correct</v>
       </c>
     </row>
@@ -3774,387 +3774,916 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F213327-9097-46D0-9C97-7A6936087FE3}">
-  <dimension ref="A1:A75"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="str">
+        <f>IF(A1=B1, "Correct", "Incorrect")</f>
+        <v>Correct</v>
+      </c>
+      <c r="D1">
+        <f>COUNTIF(C:C, "Correct") / (COUNTIF(C:C, "Correct") + COUNTIF(C:C, "Incorrect"))</f>
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C65" si="0">IF(A2=B2, "Correct", "Incorrect")</f>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>Incorrect</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="0"/>
+        <v>Incorrect</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="0"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" ref="C66:C75" si="1">IF(A66=B66, "Correct", "Incorrect")</f>
+        <v>Incorrect</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="1"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="1"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="1"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="1"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="1"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="1"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="1"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="1"/>
+        <v>Correct</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>2</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="1"/>
+        <v>Correct</v>
       </c>
     </row>
   </sheetData>
